--- a/Output/March/productivity_agent/productivity_agent_2022-03-16.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-16.xlsx
@@ -9357,7 +9357,7 @@
         <v>3588</v>
       </c>
       <c r="N26">
-        <v>506</v>
+        <v>1034</v>
       </c>
       <c r="O26">
         <v>3588</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>326.4516129032259</v>
+        <v>667.0967741935484</v>
       </c>
       <c r="BA26">
         <v>785.6934306569343</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="CL26">
-        <v>0.3840607210626186</v>
+        <v>0.7848197343453511</v>
       </c>
       <c r="CM26">
         <v>0.9821167883211679</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.7176702786377709</v>
+        <v>0.7994040247678019</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -17282,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="AZ51">
-        <v>570</v>
+        <v>578.5714285714286</v>
       </c>
       <c r="BA51">
         <v>0</v>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="CL51">
-        <v>0.6705882352941176</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="CM51">
         <v>0</v>
@@ -17555,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.3547876995004086</v>
+        <v>0.3567902026293197</v>
       </c>
     </row>
     <row r="52" spans="1:105">
